--- a/Test theories/Thruster_theory.xlsx
+++ b/Test theories/Thruster_theory.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reginaceballos/Documents/MIT/2023 - Spring/6.8110 - Cognitive Robotics/Final project/cogrob-grand-challenge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reginaceballos/Documents/MIT/2023 - Spring/6.8110 - Cognitive Robotics/Final project/cogrob-grand-challenge/Test theories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C00EE2E-0A1D-254A-A0B2-2B8C4D16BFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5148283C-AE54-4C4C-BEB9-C49586BF5C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{E33A861C-E8E6-2A47-9D00-88D736DCC310}"/>
   </bookViews>
@@ -177,7 +177,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -212,10 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,11 +540,47 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CFAE208B-3A11-794B-9235-B43690D138BE}">
+  <we:reference id="026e7b2b-fa4d-4fe0-bf3b-b965f6f25bee" version="1.0.0.62" store="EXCatalog" storeType="EXCatalog"/>
+  <we:alternateReferences>
+    <we:reference id="WA200000565" version="1.0.0.62" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>RDP.Data</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Price</we:customFunctionIds>
+        <we:customFunctionIds>RDP.HistoricalPricing</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Analytics</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Search</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Now</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Today</we:customFunctionIds>
+        <we:customFunctionIds>RDP.Aggregate</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC8342-6EB8-DA42-B3D5-80D9FEDF3243}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -541,7 +589,7 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -554,7 +602,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -579,7 +627,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -618,7 +666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -657,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,7 +744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -735,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -773,8 +821,9 @@
       <c r="L6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -813,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -852,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -891,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -930,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -969,7 +1018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1008,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1047,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1125,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
